--- a/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 07 - Colisiones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe74a79d91e30219/Documentos/Segundo Semestre/EDA/Labs/Lab 7/ISIS1225-SampleCollision/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5A6E5986-5D76-40E6-8BB6-4E7550720C79}"/>
+  <xr:revisionPtr revIDLastSave="579" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{38AFA45B-50C4-45C6-A789-5D022C74DF38}"/>
   <bookViews>
-    <workbookView xWindow="-2127" yWindow="7073" windowWidth="4267" windowHeight="2354" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="767" activeTab="2" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
-    <sheet name="Graf Mem Vs Tiempo" sheetId="13" r:id="rId2"/>
+    <sheet name="Graf Mem Vs Tiempo M1" sheetId="13" r:id="rId2"/>
+    <sheet name="Graf Mem Vs Tiempo M2" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <r>
       <t>Factor de Carga</t>
@@ -97,15 +98,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,11 +120,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -131,11 +147,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -179,7 +213,107 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -307,58 +441,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -408,7 +490,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -448,7 +530,7 @@
               <a:rPr lang="es-419" sz="1800" b="1" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> y Memoria utilizados en PROBING y CHAINING </a:t>
+              <a:t> y Memoria utilizados en PROBING y CHAINING, Máquina 1 </a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800" b="1">
               <a:effectLst/>
@@ -481,13 +563,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1031347328809506E-2"/>
+          <c:y val="8.4775714092380328E-2"/>
+          <c:w val="0.87595285059609684"/>
+          <c:h val="0.74829143101865936"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -496,11 +588,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab7'!$A$8:$C$8</c:f>
+              <c:f>'Datos Lab7'!$A$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Carga de Catálogo CHAINING</c:v>
+                  <c:v>Carga de Catálogo PROBING</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -543,6 +635,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15349550054717381"/>
+                  <c:y val="2.2709356652517309E-4"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -568,7 +666,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -577,16 +675,16 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$B$3:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>342189.90899999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>342189.94400000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>342189.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,16 +693,16 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$C$3:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>50173.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>50954.078000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>50986.881999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,6 +767,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.469525113610275E-3"/>
+                  <c:y val="-2.3980476314443167E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -694,43 +798,43 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos Lab7'!$B$10:$B$12</c:f>
+              <c:f>'Datos Lab7'!$B$10:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>365006.54300000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>365006.50900000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>365003.86300000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab7'!$C$10:$C$12</c:f>
+              <c:f>'Datos Lab7'!$C$10:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>50767.572999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>51755.599000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>51933.038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,11 +939,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -873,7 +977,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -957,11 +1061,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -995,7 +1099,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1037,7 +1141,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1074,9 +1178,705 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>Comparación de Tiempo y Memoria utilizados en PROBING y CHAINING</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t> Máquina</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" baseline="0"/>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1031347328809506E-2"/>
+          <c:y val="8.4775714092380328E-2"/>
+          <c:w val="0.87595285059609684"/>
+          <c:h val="0.74829143101865936"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$A$15:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carga de Catálogo PROBING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$B$17:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>637537680</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>637537733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>637537548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$C$17:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35844974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36094138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38683991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E9DD-4770-A3ED-FE7BBAE17DB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$A$21:$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carga de Catálogo CHAINING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10124049938843252"/>
+                  <c:y val="-1.1862418674695353E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$B$23:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>637537.67000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>637537.73300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>637537.62199999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$C$23:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35657.923000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39191.748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41312.146000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E9DD-4770-A3ED-FE7BBAE17DB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696671312"/>
+        <c:axId val="1833162896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696671312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memoria Utilizada [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>kB</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1833162896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1833162896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo de ejecución [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696671312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1117,6 +1917,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1633,11 +2470,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA07E00A-1DDB-47A3-B681-B59870FF7EA9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1648,7 +3001,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661768" cy="6283739"/>
+    <xdr:ext cx="8663609" cy="6288157"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1677,32 +3030,89 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="2182906" y="1716742"/>
+    <xdr:ext cx="11540836" cy="6123709"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44239F01-AD7D-4037-AC7B-AA880A8A367B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A2:C5" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A9:C12" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6BA7A80B-E132-46F6-8F8C-108EF635C8C3}" name="Table18" displayName="Table18" ref="A16:C19" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A16:C19" xr:uid="{B31BB215-C2D4-4977-9DB7-8FCBFDF06CC4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{29F113F0-6CE7-4537-89C8-78124772A0F8}" name="Factor de Carga (PROBING)" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{3F5F7842-0759-45A1-95EF-00B8D32FAE9A}" name="Consumo de Datos [kB]"/>
+    <tableColumn id="3" xr3:uid="{9FFE4619-E688-4FAF-A552-9DE0668BE1E2}" name="Tiempo de Ejecución [ms]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CFBEA8D4-D3AD-4D73-A266-6BB194C853EC}" name="Table139" displayName="Table139" ref="A22:C25" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A22:C25" xr:uid="{FD609129-3D10-485C-81FC-A2329F69B886}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{856B15D7-A0CB-4AE0-AA27-5496E24E1DFD}" name="Factor de Carga (CHAINING)" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{83C7DE9C-7331-4B67-A85E-F14DDE930425}" name="Consumo de Datos [kB]"/>
+    <tableColumn id="3" xr3:uid="{E79DD3AA-900D-481C-A917-F007AA8B578E}" name="Tiempo de Ejecución [ms]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1998,27 +3408,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.64453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.05859375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.8203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.62890625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.05078125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,47 +3439,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
-      <c r="B3" s="2">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45</v>
+      <c r="B3" s="5">
+        <v>342189.90899999999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>50173.06</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
-      <c r="B4" s="2">
-        <v>105</v>
-      </c>
-      <c r="C4" s="2">
-        <v>55</v>
+      <c r="B4" s="6">
+        <v>342189.94400000002</v>
+      </c>
+      <c r="C4" s="6">
+        <v>50954.078000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
         <v>0.8</v>
       </c>
-      <c r="B5" s="2">
-        <v>115</v>
-      </c>
-      <c r="C5" s="2">
-        <v>75</v>
+      <c r="B5" s="7">
+        <v>342189.87</v>
+      </c>
+      <c r="C5" s="7">
+        <v>50986.881999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2080,50 +3490,170 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2">
-        <v>90</v>
+      <c r="B10" s="5">
+        <v>365006.54300000001</v>
+      </c>
+      <c r="C10" s="5">
+        <v>50767.572999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="2">
-        <v>120</v>
-      </c>
-      <c r="C11" s="2">
-        <v>100</v>
+      <c r="B11" s="6">
+        <v>365006.50900000002</v>
+      </c>
+      <c r="C11" s="6">
+        <v>51755.599000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
-        <v>140</v>
-      </c>
-      <c r="C12" s="2">
-        <v>110</v>
+      <c r="B12" s="7">
+        <v>365003.86300000001</v>
+      </c>
+      <c r="C12" s="7">
+        <v>51933.038</v>
       </c>
     </row>
-    <row r="21" ht="14.7" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B17" s="8">
+        <v>637537680</v>
+      </c>
+      <c r="C17" s="8">
+        <v>35844974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="9">
+        <v>637537733</v>
+      </c>
+      <c r="C18" s="9">
+        <v>36094138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B19" s="10">
+        <v>637537548</v>
+      </c>
+      <c r="C19" s="10">
+        <v>38683991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5">
+        <v>637537.67000000004</v>
+      </c>
+      <c r="C23" s="5">
+        <v>35657.923000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6">
+        <v>637537.73300000001</v>
+      </c>
+      <c r="C24" s="6">
+        <v>39191.748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7">
+        <v>637537.62199999997</v>
+      </c>
+      <c r="C25" s="7">
+        <v>41312.146000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BEA07A-ECF9-445B-946A-7E421A358E4D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2339,18 +3869,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2373,6 +3903,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2387,12 +3925,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>